--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_5_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_5_24.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1236933.696511623</v>
+        <v>1241143.179631678</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460545.8926584666</v>
+        <v>460545.8926584665</v>
       </c>
     </row>
     <row r="8">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,61 +665,61 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>65.70264013979785</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J2" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -756,10 +756,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>70.1013612680166</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -795,7 +795,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>171.0057867469176</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>24.7554325077908</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>9.73723617201896</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -950,13 +950,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>208.0250417001232</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -978,10 +978,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>86.11955285850402</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1029,16 +1029,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>145.1477739416596</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1133,19 +1133,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>37.12283097261258</v>
-      </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>208.2638363878124</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1209,28 +1209,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>106.4456941689889</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1257,25 +1257,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>28.25364970497389</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1415,13 +1415,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>107.4220682565112</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>24.97975510385934</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1494,22 +1494,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>197.5472709665096</v>
+        <v>53.92880121529013</v>
       </c>
       <c r="U12" t="n">
         <v>225.8986597023843</v>
       </c>
       <c r="V12" t="n">
-        <v>121.4165796131833</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>36.48436605884934</v>
+        <v>36.48436605884923</v>
       </c>
       <c r="G13" t="n">
         <v>167.4465608509556</v>
@@ -1549,7 +1549,7 @@
         <v>139.0783256288916</v>
       </c>
       <c r="J13" t="n">
-        <v>54.86879163620181</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1604,19 +1604,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>194.2090826985703</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>414.089049841944</v>
@@ -1625,7 +1625,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I14" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,19 +1661,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>230.3271456462548</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I15" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,19 +1731,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>197.5472709665096</v>
+        <v>120.9673892710046</v>
       </c>
       <c r="U15" t="n">
-        <v>95.62025615464796</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -1774,19 +1774,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>36.48436605884934</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,16 +1807,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>147.347200282567</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1847,16 +1847,16 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>414.089049841944</v>
+        <v>13.39716969355935</v>
       </c>
       <c r="H17" t="n">
         <v>327.0451232326991</v>
@@ -1889,28 +1889,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>226.5674513251595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>54.48720440549918</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -1929,19 +1929,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>76.32943916025816</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I18" t="n">
-        <v>67.03858805571426</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.83930139749142</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S18" t="n">
         <v>159.6212195484502</v>
@@ -2050,22 +2050,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>225.6194376234954</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>43.3560697996877</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>115.1165353722833</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2084,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2096,10 +2096,10 @@
         <v>414.089049841944</v>
       </c>
       <c r="H20" t="n">
-        <v>257.9009647764192</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>163.6851955497072</v>
+        <v>56.15392801429837</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,16 +2126,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S20" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>16.61901119783131</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2296,16 +2296,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>16.60419956430074</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>45.79825459410744</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>268.3509977004538</v>
       </c>
       <c r="G23" t="n">
         <v>414.089049841944</v>
@@ -2336,7 +2336,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2403,19 +2403,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>76.32943916025816</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,10 +2445,10 @@
         <v>59.83930139749142</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T24" t="n">
-        <v>167.0918869329224</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U24" t="n">
         <v>225.8986597023843</v>
@@ -2476,13 +2476,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>86.58819153171414</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>152.8143555761653</v>
@@ -2533,10 +2533,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>109.7384251876796</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2555,22 +2555,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>15.54253012171236</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>80.12369006244597</v>
       </c>
       <c r="H26" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2609,13 +2609,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>9.136888730010115</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -2646,13 +2646,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2700,7 +2700,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>152.3002292039013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>111.5887103733622</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2728,13 +2728,13 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I28" t="n">
-        <v>81.38783925181042</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2755,19 +2755,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2792,10 +2792,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2807,10 +2807,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,28 +2837,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>66.97649427705925</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0.3944287085478618</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2880,13 +2880,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>6.456834824088546</v>
+        <v>45.56224815806319</v>
       </c>
       <c r="S30" t="n">
         <v>159.6212195484502</v>
@@ -2968,10 +2968,10 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>94.85441401754296</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3001,10 +3001,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>89.14352724124575</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,19 +3026,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>244.421986420129</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3047,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,13 +3074,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3089,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>298.1246014669535</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3114,19 +3114,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>76.32943916025816</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H33" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I33" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3159,10 +3159,10 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T33" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8986597023843</v>
+        <v>127.4055280274469</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>43.3560697996877</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3238,19 +3238,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>77.41754251185412</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3266,25 +3266,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,25 +3311,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>186.835740192579</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>280.1185470619303</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3390,22 +3390,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>197.5472709665096</v>
+        <v>53.92880121529013</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>114.5146521661423</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -3424,28 +3424,28 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>92.96858446130986</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>135.6080685705887</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3506,19 +3506,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>211.5193922673736</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H38" t="n">
-        <v>15.63489451647309</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I38" t="n">
         <v>163.6851955497072</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3597,10 +3597,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H39" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,16 +3627,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>29.38391736390425</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U39" t="n">
-        <v>219.9881595201828</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>110.9705324835873</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3670,16 +3670,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>85.0104353010119</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3724,10 +3724,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>343.634787494684</v>
       </c>
       <c r="E41" t="n">
-        <v>153.0180170621951</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,19 +3788,19 @@
         <v>73.62980964006111</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T41" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3831,10 +3831,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>67.03858805571424</v>
@@ -3867,16 +3867,16 @@
         <v>59.83930139749141</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T42" t="n">
         <v>197.5472709665096</v>
       </c>
       <c r="U42" t="n">
-        <v>22.44088855367314</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>112.379532520308</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>92.96858446130993</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>187.9216174196137</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>108.4745897976403</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H44" t="n">
-        <v>207.1261832967278</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>73.62980964006111</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T44" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4071,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>38.2010053336973</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4107,7 +4107,7 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>144.1648043931067</v>
       </c>
       <c r="U45" t="n">
         <v>225.8986597023843</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>149.8134234192865</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4195,13 +4195,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>110.9705324835878</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>964.0571555106362</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="C2" t="n">
-        <v>964.0571555106362</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="D2" t="n">
-        <v>964.0571555106362</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="E2" t="n">
-        <v>749.627473042513</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="F2" t="n">
-        <v>506.1786963984129</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G2" t="n">
-        <v>262.7299197543128</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4352,28 +4352,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X2" t="n">
-        <v>964.0571555106362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y2" t="n">
-        <v>964.0571555106362</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="3">
@@ -4383,40 +4383,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>90.84473158927784</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>90.84473158927784</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>90.84473158927784</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>90.84473158927784</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>90.84473158927784</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>90.84473158927784</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>90.84473158927784</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
         <v>473.4149733950735</v>
@@ -4431,28 +4431,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>588.4532163200711</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>360.2295980564601</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V3" t="n">
-        <v>187.4964801302808</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W3" t="n">
-        <v>187.4964801302808</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X3" t="n">
-        <v>187.4964801302808</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.4964801302808</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4507,31 +4507,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>728.6161971483371</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="C5" t="n">
-        <v>728.6161971483371</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="D5" t="n">
-        <v>728.6161971483371</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="E5" t="n">
-        <v>728.6161971483371</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="F5" t="n">
-        <v>718.7806050553886</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G5" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>728.6161971483371</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U5" t="n">
-        <v>728.6161971483371</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V5" t="n">
-        <v>728.6161971483371</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="W5" t="n">
-        <v>728.6161971483371</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="X5" t="n">
-        <v>728.6161971483371</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="Y5" t="n">
-        <v>728.6161971483371</v>
+        <v>41.68395448076474</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>179.2727307684539</v>
+        <v>259.2693145670932</v>
       </c>
       <c r="C6" t="n">
-        <v>179.2727307684539</v>
+        <v>259.2693145670932</v>
       </c>
       <c r="D6" t="n">
-        <v>179.2727307684539</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4647,49 +4647,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>877.067708178814</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>877.067708178814</v>
       </c>
       <c r="T6" t="n">
-        <v>761.8705608694022</v>
+        <v>674.8811135375799</v>
       </c>
       <c r="U6" t="n">
-        <v>533.6469426057913</v>
+        <v>674.8811135375799</v>
       </c>
       <c r="V6" t="n">
-        <v>387.0330295334078</v>
+        <v>674.8811135375799</v>
       </c>
       <c r="W6" t="n">
-        <v>387.0330295334078</v>
+        <v>674.8811135375799</v>
       </c>
       <c r="X6" t="n">
-        <v>387.0330295334078</v>
+        <v>467.0296133320471</v>
       </c>
       <c r="Y6" t="n">
-        <v>179.2727307684539</v>
+        <v>259.2693145670932</v>
       </c>
     </row>
     <row r="7">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>315.6850394389064</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C8" t="n">
-        <v>72.23626279480629</v>
+        <v>485.167420504237</v>
       </c>
       <c r="D8" t="n">
-        <v>72.23626279480629</v>
+        <v>485.167420504237</v>
       </c>
       <c r="E8" t="n">
-        <v>72.23626279480629</v>
+        <v>485.167420504237</v>
       </c>
       <c r="F8" t="n">
-        <v>34.73845373156126</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4826,28 +4826,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U8" t="n">
-        <v>802.5825927271064</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V8" t="n">
-        <v>559.1338160830064</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W8" t="n">
-        <v>559.1338160830064</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X8" t="n">
-        <v>559.1338160830064</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y8" t="n">
-        <v>315.6850394389064</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>353.7257600495809</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="C9" t="n">
-        <v>179.2727307684539</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="D9" t="n">
-        <v>179.2727307684539</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4884,16 +4884,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O9" t="n">
         <v>781.4136778972854</v>
@@ -4905,28 +4905,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>935.518115404602</v>
       </c>
       <c r="U9" t="n">
-        <v>461.2466632505798</v>
+        <v>935.518115404602</v>
       </c>
       <c r="V9" t="n">
-        <v>461.2466632505798</v>
+        <v>700.3660071728593</v>
       </c>
       <c r="W9" t="n">
-        <v>461.2466632505798</v>
+        <v>456.9172305287593</v>
       </c>
       <c r="X9" t="n">
-        <v>461.2466632505798</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="Y9" t="n">
-        <v>461.2466632505798</v>
+        <v>249.0657303232264</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
         <v>19.28114311021272</v>
@@ -4987,25 +4987,25 @@
         <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2319.517746219732</v>
+        <v>1201.934852436247</v>
       </c>
       <c r="C11" t="n">
-        <v>1950.55522927932</v>
+        <v>1201.934852436247</v>
       </c>
       <c r="D11" t="n">
-        <v>1592.28953067257</v>
+        <v>843.6691538294961</v>
       </c>
       <c r="E11" t="n">
-        <v>1206.501278074326</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="F11" t="n">
-        <v>795.5153732847182</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G11" t="n">
-        <v>377.243605767603</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H11" t="n">
         <v>46.89499644164432</v>
@@ -5042,10 +5042,10 @@
         <v>137.0453218915536</v>
       </c>
       <c r="K11" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275678</v>
       </c>
       <c r="L11" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M11" t="n">
         <v>1190.549107376119</v>
@@ -5063,28 +5063,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R11" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S11" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T11" t="n">
-        <v>2344.749822082216</v>
+        <v>1978.67402447618</v>
       </c>
       <c r="U11" t="n">
-        <v>2344.749822082216</v>
+        <v>1978.67402447618</v>
       </c>
       <c r="V11" t="n">
-        <v>2344.749822082216</v>
+        <v>1978.67402447618</v>
       </c>
       <c r="W11" t="n">
-        <v>2344.749822082216</v>
+        <v>1978.67402447618</v>
       </c>
       <c r="X11" t="n">
-        <v>2319.517746219732</v>
+        <v>1978.67402447618</v>
       </c>
       <c r="Y11" t="n">
-        <v>2319.517746219732</v>
+        <v>1588.534692500368</v>
       </c>
     </row>
     <row r="12">
@@ -5118,43 +5118,43 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J12" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K12" t="n">
-        <v>336.0641406922996</v>
+        <v>273.126860749845</v>
       </c>
       <c r="L12" t="n">
-        <v>705.6153558007836</v>
+        <v>642.6780758583288</v>
       </c>
       <c r="M12" t="n">
-        <v>1188.843414867958</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N12" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O12" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P12" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q12" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R12" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S12" t="n">
-        <v>2123.072528197426</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T12" t="n">
-        <v>1923.529830251457</v>
+        <v>2290.276285501115</v>
       </c>
       <c r="U12" t="n">
-        <v>1695.349365905614</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V12" t="n">
-        <v>1572.706356195328</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W12" t="n">
         <v>1572.706356195328</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="C13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="D13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="E13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="F13" t="n">
         <v>570.9156784273715</v>
@@ -5203,46 +5203,46 @@
         <v>87.46721626702976</v>
       </c>
       <c r="L13" t="n">
-        <v>194.9121237200978</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M13" t="n">
-        <v>318.5868368362075</v>
+        <v>318.5868368362074</v>
       </c>
       <c r="N13" t="n">
-        <v>444.7554581228448</v>
+        <v>444.7554581228447</v>
       </c>
       <c r="O13" t="n">
-        <v>545.2763053496715</v>
+        <v>545.2763053496714</v>
       </c>
       <c r="P13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Q13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="T13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="U13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="V13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="W13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="X13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Y13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1568.010650042283</v>
+        <v>1153.781071891469</v>
       </c>
       <c r="C14" t="n">
-        <v>1568.010650042283</v>
+        <v>1153.781071891469</v>
       </c>
       <c r="D14" t="n">
-        <v>1568.010650042283</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="E14" t="n">
-        <v>1371.839859437666</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="F14" t="n">
-        <v>960.8539546480588</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="G14" t="n">
-        <v>542.5821871309436</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H14" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I14" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J14" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915538</v>
       </c>
       <c r="K14" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L14" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M14" t="n">
         <v>1190.549107376119</v>
@@ -5309,19 +5309,19 @@
         <v>2344.749822082216</v>
       </c>
       <c r="U14" t="n">
-        <v>2344.749822082216</v>
+        <v>2090.963399967084</v>
       </c>
       <c r="V14" t="n">
-        <v>2344.749822082216</v>
+        <v>1759.900512623513</v>
       </c>
       <c r="W14" t="n">
-        <v>2344.749822082216</v>
+        <v>1759.900512623513</v>
       </c>
       <c r="X14" t="n">
-        <v>2344.749822082216</v>
+        <v>1386.434754362433</v>
       </c>
       <c r="Y14" t="n">
-        <v>1954.610490106405</v>
+        <v>1153.781071891469</v>
       </c>
     </row>
     <row r="15">
@@ -5331,40 +5331,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.8792202047736</v>
+        <v>921.1634746939509</v>
       </c>
       <c r="C15" t="n">
-        <v>814.4261909236466</v>
+        <v>746.7104454128239</v>
       </c>
       <c r="D15" t="n">
-        <v>665.4917812623953</v>
+        <v>597.7760357515726</v>
       </c>
       <c r="E15" t="n">
-        <v>506.2543262569397</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F15" t="n">
-        <v>359.7197682838247</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G15" t="n">
-        <v>221.6448824165167</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H15" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I15" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J15" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K15" t="n">
-        <v>336.0641406922996</v>
+        <v>121.6684232076323</v>
       </c>
       <c r="L15" t="n">
-        <v>705.6153558007836</v>
+        <v>491.2196383161161</v>
       </c>
       <c r="M15" t="n">
-        <v>1188.843414867958</v>
+        <v>974.4476973832905</v>
       </c>
       <c r="N15" t="n">
         <v>1486.172378671464</v>
@@ -5379,28 +5379,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R15" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S15" t="n">
-        <v>2123.072528197426</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T15" t="n">
-        <v>1923.529830251457</v>
+        <v>2222.560539990292</v>
       </c>
       <c r="U15" t="n">
-        <v>1826.94371292353</v>
+        <v>1994.38007564445</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.94371292353</v>
+        <v>1759.227967412707</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.706356195328</v>
+        <v>1504.990610684506</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.854855989795</v>
+        <v>1297.139110478973</v>
       </c>
       <c r="Y15" t="n">
-        <v>1157.094557224842</v>
+        <v>1089.378811714019</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C16" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D16" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E16" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F16" t="n">
-        <v>570.9156784273715</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G16" t="n">
-        <v>401.7777381738809</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H16" t="n">
-        <v>242.8011754972942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I16" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J16" t="n">
         <v>46.89499644164432</v>
@@ -5440,46 +5440,46 @@
         <v>87.46721626702976</v>
       </c>
       <c r="L16" t="n">
-        <v>194.9121237200978</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M16" t="n">
-        <v>318.5868368362075</v>
+        <v>318.5868368362074</v>
       </c>
       <c r="N16" t="n">
-        <v>444.7554581228448</v>
+        <v>444.7554581228447</v>
       </c>
       <c r="O16" t="n">
-        <v>545.2763053496715</v>
+        <v>545.2763053496714</v>
       </c>
       <c r="P16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Q16" t="n">
-        <v>607.7685734363102</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="R16" t="n">
-        <v>607.7685734363102</v>
+        <v>412.4263787765004</v>
       </c>
       <c r="S16" t="n">
-        <v>607.7685734363102</v>
+        <v>195.7305522826211</v>
       </c>
       <c r="T16" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="U16" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="V16" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="W16" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X16" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y16" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2115.893810642661</v>
+        <v>556.1146817709025</v>
       </c>
       <c r="C17" t="n">
-        <v>2115.893810642661</v>
+        <v>556.1146817709025</v>
       </c>
       <c r="D17" t="n">
-        <v>1757.628112035911</v>
+        <v>556.1146817709025</v>
       </c>
       <c r="E17" t="n">
-        <v>1371.839859437666</v>
+        <v>556.1146817709025</v>
       </c>
       <c r="F17" t="n">
-        <v>960.8539546480588</v>
+        <v>556.1146817709025</v>
       </c>
       <c r="G17" t="n">
         <v>542.5821871309436</v>
@@ -5513,16 +5513,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J17" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K17" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275677</v>
       </c>
       <c r="L17" t="n">
-        <v>762.5916738244549</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M17" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N17" t="n">
         <v>1610.799342072557</v>
@@ -5537,28 +5537,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R17" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S17" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T17" t="n">
-        <v>2344.749822082216</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U17" t="n">
-        <v>2344.749822082216</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V17" t="n">
-        <v>2344.749822082216</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="W17" t="n">
-        <v>2344.749822082216</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="X17" t="n">
-        <v>2344.749822082216</v>
+        <v>556.1146817709025</v>
       </c>
       <c r="Y17" t="n">
-        <v>2115.893810642661</v>
+        <v>556.1146817709025</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>735.3105217676085</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C18" t="n">
-        <v>560.8574924864815</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D18" t="n">
-        <v>411.9230828252303</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E18" t="n">
-        <v>252.6856278197748</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="F18" t="n">
-        <v>252.6856278197748</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="G18" t="n">
-        <v>114.6107419524668</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H18" t="n">
         <v>114.6107419524668</v>
@@ -5592,19 +5592,19 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J18" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K18" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922997</v>
       </c>
       <c r="L18" t="n">
-        <v>645.6158192373775</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M18" t="n">
-        <v>1128.843878304552</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N18" t="n">
-        <v>1640.568559592725</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O18" t="n">
         <v>2039.343247810003</v>
@@ -5674,7 +5674,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K19" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L19" t="n">
         <v>194.9121237200978</v>
@@ -5698,19 +5698,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="S19" t="n">
-        <v>391.0727469424309</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T19" t="n">
-        <v>163.1743251005163</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="U19" t="n">
-        <v>163.1743251005163</v>
+        <v>90.68900634031877</v>
       </c>
       <c r="V19" t="n">
-        <v>163.1743251005163</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="W19" t="n">
-        <v>163.1743251005163</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X19" t="n">
         <v>46.89499644164432</v>
@@ -5726,40 +5726,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1687.785527736638</v>
+        <v>1676.927759361744</v>
       </c>
       <c r="C20" t="n">
-        <v>1687.785527736638</v>
+        <v>1676.927759361744</v>
       </c>
       <c r="D20" t="n">
-        <v>1687.785527736638</v>
+        <v>1318.662060754993</v>
       </c>
       <c r="E20" t="n">
-        <v>1301.997275138394</v>
+        <v>932.8738081567492</v>
       </c>
       <c r="F20" t="n">
-        <v>891.0113703487862</v>
+        <v>521.8879033671417</v>
       </c>
       <c r="G20" t="n">
-        <v>472.739602831671</v>
+        <v>103.6161358500265</v>
       </c>
       <c r="H20" t="n">
-        <v>212.2335778049849</v>
+        <v>103.6161358500265</v>
       </c>
       <c r="I20" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J20" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K20" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L20" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M20" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N20" t="n">
         <v>1610.799342072557</v>
@@ -5774,28 +5774,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R20" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S20" t="n">
-        <v>2161.554709220192</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T20" t="n">
-        <v>1941.571949851771</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="U20" t="n">
-        <v>1687.785527736638</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="V20" t="n">
-        <v>1687.785527736638</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="W20" t="n">
-        <v>1687.785527736638</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="X20" t="n">
-        <v>1687.785527736638</v>
+        <v>1676.927759361744</v>
       </c>
       <c r="Y20" t="n">
-        <v>1687.785527736638</v>
+        <v>1676.927759361744</v>
       </c>
     </row>
     <row r="21">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>232.6180593673606</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="C22" t="n">
-        <v>63.68187643945373</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="D22" t="n">
-        <v>63.68187643945373</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="E22" t="n">
-        <v>63.68187643945373</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="F22" t="n">
-        <v>63.68187643945373</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="G22" t="n">
-        <v>63.68187643945373</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="H22" t="n">
-        <v>63.68187643945373</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="I22" t="n">
-        <v>63.68187643945373</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="J22" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K22" t="n">
-        <v>87.46721626702976</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L22" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M22" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N22" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O22" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P22" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q22" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R22" t="n">
-        <v>453.4106385108907</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S22" t="n">
-        <v>453.4106385108907</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T22" t="n">
-        <v>453.4106385108907</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U22" t="n">
-        <v>453.4106385108907</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V22" t="n">
-        <v>453.4106385108907</v>
+        <v>2090.06533387633</v>
       </c>
       <c r="W22" t="n">
-        <v>453.4106385108907</v>
+        <v>1800.648163839369</v>
       </c>
       <c r="X22" t="n">
-        <v>453.4106385108907</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="Y22" t="n">
-        <v>232.6180593673606</v>
+        <v>1783.87624508755</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>841.7762365110893</v>
+        <v>1231.915568486901</v>
       </c>
       <c r="C23" t="n">
-        <v>795.5153732847182</v>
+        <v>1231.915568486901</v>
       </c>
       <c r="D23" t="n">
-        <v>795.5153732847182</v>
+        <v>1231.915568486901</v>
       </c>
       <c r="E23" t="n">
-        <v>795.5153732847182</v>
+        <v>1231.915568486901</v>
       </c>
       <c r="F23" t="n">
-        <v>795.5153732847182</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G23" t="n">
-        <v>377.243605767603</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H23" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I23" t="n">
         <v>46.89499644164432</v>
@@ -6032,7 +6032,7 @@
         <v>1618.515408551023</v>
       </c>
       <c r="Y23" t="n">
-        <v>1228.376076575211</v>
+        <v>1618.515408551023</v>
       </c>
     </row>
     <row r="24">
@@ -6042,40 +6042,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>814.129334229901</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C24" t="n">
-        <v>639.676304948774</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D24" t="n">
-        <v>490.7418952875228</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E24" t="n">
-        <v>331.5044402820673</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="F24" t="n">
-        <v>184.9698823089523</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="G24" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H24" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I24" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J24" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K24" t="n">
-        <v>276.0646041288937</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L24" t="n">
-        <v>645.6158192373775</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M24" t="n">
-        <v>1128.843878304552</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N24" t="n">
         <v>1486.172378671464</v>
@@ -6093,25 +6093,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S24" t="n">
-        <v>2284.306083296871</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T24" t="n">
-        <v>2115.526399526243</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U24" t="n">
-        <v>1887.3459351804</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V24" t="n">
-        <v>1652.193826948657</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W24" t="n">
-        <v>1397.956470220456</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X24" t="n">
-        <v>1190.104970014923</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y24" t="n">
-        <v>982.344671249969</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.89499644164432</v>
+        <v>2190.391887156797</v>
       </c>
       <c r="C25" t="n">
-        <v>46.89499644164432</v>
+        <v>2021.45570422889</v>
       </c>
       <c r="D25" t="n">
-        <v>46.89499644164432</v>
+        <v>1871.339064816554</v>
       </c>
       <c r="E25" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="F25" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="G25" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="H25" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="I25" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="J25" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K25" t="n">
-        <v>87.46721626702976</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L25" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M25" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N25" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O25" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P25" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q25" t="n">
-        <v>566.78431370192</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R25" t="n">
-        <v>412.4263787765005</v>
+        <v>2190.391887156797</v>
       </c>
       <c r="S25" t="n">
-        <v>412.4263787765005</v>
+        <v>2190.391887156797</v>
       </c>
       <c r="T25" t="n">
-        <v>412.4263787765005</v>
+        <v>2190.391887156797</v>
       </c>
       <c r="U25" t="n">
-        <v>412.4263787765005</v>
+        <v>2190.391887156797</v>
       </c>
       <c r="V25" t="n">
-        <v>157.7418905706137</v>
+        <v>2190.391887156797</v>
       </c>
       <c r="W25" t="n">
-        <v>46.89499644164432</v>
+        <v>2190.391887156797</v>
       </c>
       <c r="X25" t="n">
-        <v>46.89499644164432</v>
+        <v>2190.391887156797</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.89499644164432</v>
+        <v>2190.391887156797</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1120.171346690232</v>
+        <v>513.6162693049855</v>
       </c>
       <c r="C26" t="n">
-        <v>751.2088297498206</v>
+        <v>513.6162693049855</v>
       </c>
       <c r="D26" t="n">
-        <v>392.94313114307</v>
+        <v>513.6162693049855</v>
       </c>
       <c r="E26" t="n">
-        <v>377.243605767603</v>
+        <v>127.8280167067413</v>
       </c>
       <c r="F26" t="n">
-        <v>377.243605767603</v>
+        <v>127.8280167067413</v>
       </c>
       <c r="G26" t="n">
-        <v>377.243605767603</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H26" t="n">
         <v>46.89499644164432</v>
@@ -6257,19 +6257,19 @@
         <v>2270.376276991246</v>
       </c>
       <c r="U26" t="n">
-        <v>2270.376276991246</v>
+        <v>2016.589854876113</v>
       </c>
       <c r="V26" t="n">
-        <v>2270.376276991246</v>
+        <v>2016.589854876113</v>
       </c>
       <c r="W26" t="n">
-        <v>2270.376276991246</v>
+        <v>1663.821199605999</v>
       </c>
       <c r="X26" t="n">
-        <v>1896.910518730166</v>
+        <v>1290.355441344919</v>
       </c>
       <c r="Y26" t="n">
-        <v>1506.771186754354</v>
+        <v>900.2161093691072</v>
       </c>
     </row>
     <row r="27">
@@ -6279,46 +6279,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>676.0544483625931</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C27" t="n">
-        <v>501.6014190814661</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D27" t="n">
-        <v>352.6670094202149</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E27" t="n">
-        <v>193.4295544147594</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F27" t="n">
-        <v>46.89499644164432</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G27" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H27" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I27" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J27" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K27" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L27" t="n">
-        <v>705.6153558007836</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M27" t="n">
-        <v>1188.843414867958</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.568096156132</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O27" t="n">
-        <v>2102.280527752458</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P27" t="n">
         <v>2344.749822082216</v>
@@ -6348,7 +6348,7 @@
         <v>998.1084007401373</v>
       </c>
       <c r="Y27" t="n">
-        <v>844.2697853826612</v>
+        <v>998.1084007401373</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>184.527956934586</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="C28" t="n">
-        <v>184.527956934586</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="D28" t="n">
-        <v>184.527956934586</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="E28" t="n">
-        <v>184.527956934586</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="F28" t="n">
-        <v>184.527956934586</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="G28" t="n">
-        <v>184.527956934586</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="H28" t="n">
-        <v>184.527956934586</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I28" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J28" t="n">
         <v>46.89499644164432</v>
@@ -6403,31 +6403,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q28" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R28" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S28" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T28" t="n">
-        <v>184.527956934586</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U28" t="n">
-        <v>184.527956934586</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="V28" t="n">
-        <v>184.527956934586</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="W28" t="n">
-        <v>184.527956934586</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="X28" t="n">
-        <v>184.527956934586</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="Y28" t="n">
-        <v>184.527956934586</v>
+        <v>318.5874281822333</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>774.1232119888066</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="C29" t="n">
-        <v>405.1606950483948</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="D29" t="n">
-        <v>46.89499644164432</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="E29" t="n">
-        <v>46.89499644164432</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="F29" t="n">
-        <v>46.89499644164432</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="G29" t="n">
-        <v>46.89499644164432</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H29" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I29" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K29" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L29" t="n">
         <v>762.591673824455</v>
@@ -6485,28 +6485,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R29" t="n">
-        <v>2277.096797559934</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S29" t="n">
-        <v>2277.096797559934</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T29" t="n">
-        <v>2277.096797559934</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U29" t="n">
-        <v>2277.096797559934</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V29" t="n">
-        <v>2277.096797559934</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="W29" t="n">
-        <v>1924.32814228982</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="X29" t="n">
-        <v>1550.86238402874</v>
+        <v>929.1820271950653</v>
       </c>
       <c r="Y29" t="n">
-        <v>1160.723052052928</v>
+        <v>929.1820271950653</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>676.0544483625931</v>
+        <v>636.554030853528</v>
       </c>
       <c r="C30" t="n">
-        <v>501.6014190814661</v>
+        <v>462.101001572401</v>
       </c>
       <c r="D30" t="n">
-        <v>352.6670094202149</v>
+        <v>313.1665919111497</v>
       </c>
       <c r="E30" t="n">
-        <v>193.4295544147594</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="F30" t="n">
-        <v>46.89499644164432</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="G30" t="n">
-        <v>46.89499644164432</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H30" t="n">
         <v>46.89499644164432</v>
@@ -6564,28 +6564,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R30" t="n">
-        <v>2338.227766704349</v>
+        <v>2298.727349195284</v>
       </c>
       <c r="S30" t="n">
-        <v>2176.994211604904</v>
+        <v>2137.493794095839</v>
       </c>
       <c r="T30" t="n">
-        <v>1977.451513658935</v>
+        <v>1937.95109614987</v>
       </c>
       <c r="U30" t="n">
-        <v>1749.271049313092</v>
+        <v>1709.770631804027</v>
       </c>
       <c r="V30" t="n">
-        <v>1514.118941081349</v>
+        <v>1474.618523572284</v>
       </c>
       <c r="W30" t="n">
-        <v>1259.881584353148</v>
+        <v>1220.381166844083</v>
       </c>
       <c r="X30" t="n">
-        <v>1052.030084147615</v>
+        <v>1012.52966663855</v>
       </c>
       <c r="Y30" t="n">
-        <v>844.2697853826612</v>
+        <v>804.7693678735961</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.89499644164432</v>
+        <v>198.1305577080532</v>
       </c>
       <c r="C31" t="n">
-        <v>46.89499644164432</v>
+        <v>198.1305577080532</v>
       </c>
       <c r="D31" t="n">
-        <v>46.89499644164432</v>
+        <v>198.1305577080532</v>
       </c>
       <c r="E31" t="n">
-        <v>46.89499644164432</v>
+        <v>198.1305577080532</v>
       </c>
       <c r="F31" t="n">
-        <v>46.89499644164432</v>
+        <v>198.1305577080532</v>
       </c>
       <c r="G31" t="n">
-        <v>46.89499644164432</v>
+        <v>198.1305577080532</v>
       </c>
       <c r="H31" t="n">
-        <v>46.89499644164432</v>
+        <v>198.1305577080532</v>
       </c>
       <c r="I31" t="n">
-        <v>46.89499644164432</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="J31" t="n">
         <v>46.89499644164432</v>
@@ -6649,22 +6649,22 @@
         <v>607.7685734363102</v>
       </c>
       <c r="T31" t="n">
-        <v>517.724606525961</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U31" t="n">
-        <v>228.543461271884</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V31" t="n">
-        <v>228.543461271884</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W31" t="n">
-        <v>228.543461271884</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X31" t="n">
-        <v>228.543461271884</v>
+        <v>379.7790225382929</v>
       </c>
       <c r="Y31" t="n">
-        <v>228.543461271884</v>
+        <v>379.7790225382929</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.857513382056</v>
+        <v>1228.376076575211</v>
       </c>
       <c r="C32" t="n">
-        <v>46.89499644164432</v>
+        <v>1228.376076575211</v>
       </c>
       <c r="D32" t="n">
-        <v>46.89499644164432</v>
+        <v>870.1103779684602</v>
       </c>
       <c r="E32" t="n">
-        <v>46.89499644164432</v>
+        <v>623.2194825945925</v>
       </c>
       <c r="F32" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="G32" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H32" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I32" t="n">
         <v>46.89499644164432</v>
@@ -6704,10 +6704,10 @@
         <v>392.9020949275676</v>
       </c>
       <c r="L32" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M32" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N32" t="n">
         <v>1610.799342072557</v>
@@ -6719,31 +6719,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q32" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R32" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S32" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T32" t="n">
-        <v>1867.1984047608</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U32" t="n">
-        <v>1867.1984047608</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V32" t="n">
-        <v>1867.1984047608</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W32" t="n">
-        <v>1566.062443683069</v>
+        <v>1991.981166812102</v>
       </c>
       <c r="X32" t="n">
-        <v>1192.59668542199</v>
+        <v>1618.515408551022</v>
       </c>
       <c r="Y32" t="n">
-        <v>802.4573534461779</v>
+        <v>1228.376076575211</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>622.1327649551154</v>
+        <v>921.1634746939509</v>
       </c>
       <c r="C33" t="n">
-        <v>447.6797356739884</v>
+        <v>746.7104454128239</v>
       </c>
       <c r="D33" t="n">
-        <v>298.7453260127371</v>
+        <v>597.7760357515726</v>
       </c>
       <c r="E33" t="n">
-        <v>221.6448824165167</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F33" t="n">
-        <v>221.6448824165167</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G33" t="n">
-        <v>221.6448824165167</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H33" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I33" t="n">
         <v>46.89499644164432</v>
@@ -6807,22 +6807,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T33" t="n">
-        <v>1923.529830251457</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="U33" t="n">
-        <v>1695.349365905614</v>
+        <v>1994.38007564445</v>
       </c>
       <c r="V33" t="n">
-        <v>1460.197257673872</v>
+        <v>1759.227967412707</v>
       </c>
       <c r="W33" t="n">
-        <v>1205.95990094567</v>
+        <v>1504.990610684506</v>
       </c>
       <c r="X33" t="n">
-        <v>998.1084007401373</v>
+        <v>1297.139110478973</v>
       </c>
       <c r="Y33" t="n">
-        <v>790.3481019751835</v>
+        <v>1089.378811714019</v>
       </c>
     </row>
     <row r="34">
@@ -6886,22 +6886,22 @@
         <v>607.7685734363102</v>
       </c>
       <c r="T34" t="n">
-        <v>607.7685734363102</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="U34" t="n">
-        <v>607.7685734363102</v>
+        <v>90.68900634031877</v>
       </c>
       <c r="V34" t="n">
-        <v>353.0840852304234</v>
+        <v>90.68900634031877</v>
       </c>
       <c r="W34" t="n">
-        <v>274.8845473396617</v>
+        <v>90.68900634031877</v>
       </c>
       <c r="X34" t="n">
-        <v>46.89499644164432</v>
+        <v>90.68900634031877</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.89499644164432</v>
+        <v>90.68900634031877</v>
       </c>
     </row>
     <row r="35">
@@ -6911,40 +6911,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1234.418367355117</v>
+        <v>1377.970252133248</v>
       </c>
       <c r="C35" t="n">
-        <v>1234.418367355117</v>
+        <v>1009.007735192837</v>
       </c>
       <c r="D35" t="n">
-        <v>876.152668748367</v>
+        <v>1009.007735192837</v>
       </c>
       <c r="E35" t="n">
-        <v>876.152668748367</v>
+        <v>623.2194825945925</v>
       </c>
       <c r="F35" t="n">
-        <v>465.1667639587595</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="G35" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H35" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I35" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J35" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K35" t="n">
         <v>392.9020949275675</v>
       </c>
       <c r="L35" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M35" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N35" t="n">
         <v>1610.799342072557</v>
@@ -6959,28 +6959,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R35" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S35" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T35" t="n">
-        <v>2050.393517622824</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U35" t="n">
-        <v>1796.607095507691</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V35" t="n">
-        <v>1607.884125616197</v>
+        <v>2013.686934738646</v>
       </c>
       <c r="W35" t="n">
-        <v>1607.884125616197</v>
+        <v>1660.918279468531</v>
       </c>
       <c r="X35" t="n">
-        <v>1234.418367355117</v>
+        <v>1377.970252133248</v>
       </c>
       <c r="Y35" t="n">
-        <v>1234.418367355117</v>
+        <v>1377.970252133248</v>
       </c>
     </row>
     <row r="36">
@@ -7014,43 +7014,43 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J36" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K36" t="n">
-        <v>121.6684232076319</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L36" t="n">
-        <v>491.2196383161158</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M36" t="n">
-        <v>974.4476973832902</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N36" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O36" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P36" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q36" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R36" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S36" t="n">
-        <v>2123.072528197426</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T36" t="n">
-        <v>1923.529830251457</v>
+        <v>2290.276285501115</v>
       </c>
       <c r="U36" t="n">
-        <v>1923.529830251457</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V36" t="n">
-        <v>1688.377722019714</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W36" t="n">
         <v>1572.706356195328</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>607.7685734363102</v>
+        <v>379.7790225382929</v>
       </c>
       <c r="C37" t="n">
-        <v>438.8323905084034</v>
+        <v>379.7790225382929</v>
       </c>
       <c r="D37" t="n">
-        <v>288.7157510960676</v>
+        <v>379.7790225382929</v>
       </c>
       <c r="E37" t="n">
-        <v>140.8026575136745</v>
+        <v>379.7790225382929</v>
       </c>
       <c r="F37" t="n">
-        <v>46.89499644164432</v>
+        <v>379.7790225382929</v>
       </c>
       <c r="G37" t="n">
-        <v>46.89499644164432</v>
+        <v>379.7790225382929</v>
       </c>
       <c r="H37" t="n">
-        <v>46.89499644164432</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="I37" t="n">
-        <v>46.89499644164432</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="J37" t="n">
         <v>46.89499644164432</v>
@@ -7135,10 +7135,10 @@
         <v>607.7685734363102</v>
       </c>
       <c r="X37" t="n">
-        <v>607.7685734363102</v>
+        <v>379.7790225382929</v>
       </c>
       <c r="Y37" t="n">
-        <v>607.7685734363102</v>
+        <v>379.7790225382929</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>613.8146531471414</v>
+        <v>1971.284063821136</v>
       </c>
       <c r="C38" t="n">
-        <v>613.8146531471414</v>
+        <v>1971.284063821136</v>
       </c>
       <c r="D38" t="n">
-        <v>613.8146531471414</v>
+        <v>1757.628112035911</v>
       </c>
       <c r="E38" t="n">
-        <v>228.0264005488971</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="F38" t="n">
-        <v>228.0264005488971</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G38" t="n">
-        <v>228.0264005488971</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H38" t="n">
         <v>212.2335778049849</v>
@@ -7172,16 +7172,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J38" t="n">
-        <v>137.0453218915535</v>
+        <v>137.045321891553</v>
       </c>
       <c r="K38" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275671</v>
       </c>
       <c r="L38" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244546</v>
       </c>
       <c r="M38" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N38" t="n">
         <v>1610.799342072557</v>
@@ -7199,25 +7199,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S38" t="n">
-        <v>2161.554709220192</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T38" t="n">
-        <v>1941.571949851771</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U38" t="n">
-        <v>1687.785527736638</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V38" t="n">
-        <v>1356.722640393067</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W38" t="n">
-        <v>1003.953985122953</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X38" t="n">
-        <v>1003.953985122953</v>
+        <v>1971.284063821136</v>
       </c>
       <c r="Y38" t="n">
-        <v>613.8146531471414</v>
+        <v>1971.284063821136</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.8792202047736</v>
+        <v>814.129334229901</v>
       </c>
       <c r="C39" t="n">
-        <v>814.4261909236466</v>
+        <v>639.676304948774</v>
       </c>
       <c r="D39" t="n">
-        <v>665.4917812623953</v>
+        <v>490.7418952875228</v>
       </c>
       <c r="E39" t="n">
-        <v>506.2543262569397</v>
+        <v>331.5044402820673</v>
       </c>
       <c r="F39" t="n">
-        <v>359.7197682838247</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="G39" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H39" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I39" t="n">
         <v>46.89499644164432</v>
@@ -7254,16 +7254,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K39" t="n">
-        <v>276.0646041288937</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L39" t="n">
-        <v>645.6158192373777</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M39" t="n">
-        <v>1128.843878304552</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N39" t="n">
-        <v>1640.568559592726</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O39" t="n">
         <v>2039.343247810003</v>
@@ -7275,28 +7275,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R39" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S39" t="n">
-        <v>2284.306083296871</v>
+        <v>2315.069097472212</v>
       </c>
       <c r="T39" t="n">
-        <v>2284.306083296871</v>
+        <v>2115.526399526243</v>
       </c>
       <c r="U39" t="n">
-        <v>2062.095821155272</v>
+        <v>1887.3459351804</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.94371292353</v>
+        <v>1652.193826948657</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.706356195328</v>
+        <v>1397.956470220456</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.854855989795</v>
+        <v>1190.104970014923</v>
       </c>
       <c r="Y39" t="n">
-        <v>1157.094557224842</v>
+        <v>982.344671249969</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.89499644164432</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="C40" t="n">
-        <v>46.89499644164432</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="D40" t="n">
-        <v>46.89499644164432</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="E40" t="n">
-        <v>46.89499644164432</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="F40" t="n">
-        <v>46.89499644164432</v>
+        <v>2197.859874584306</v>
       </c>
       <c r="G40" t="n">
-        <v>46.89499644164432</v>
+        <v>2028.721934330815</v>
       </c>
       <c r="H40" t="n">
-        <v>46.89499644164432</v>
+        <v>1869.745371654229</v>
       </c>
       <c r="I40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="J40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K40" t="n">
-        <v>87.46721626702977</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L40" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M40" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N40" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O40" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P40" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q40" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R40" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S40" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T40" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U40" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V40" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W40" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X40" t="n">
-        <v>379.7790225382929</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y40" t="n">
-        <v>158.9864433947628</v>
+        <v>2344.749822082216</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1719.330630279253</v>
+        <v>762.9633593362823</v>
       </c>
       <c r="C41" t="n">
-        <v>1719.330630279253</v>
+        <v>394.0008423958706</v>
       </c>
       <c r="D41" t="n">
-        <v>1361.064931672503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E41" t="n">
-        <v>1206.501278074326</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F41" t="n">
-        <v>795.5153732847182</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G41" t="n">
-        <v>377.243605767603</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H41" t="n">
         <v>46.89499644164432</v>
@@ -7409,13 +7409,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J41" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K41" t="n">
-        <v>392.9020949275679</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L41" t="n">
-        <v>762.5916738244553</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M41" t="n">
         <v>1190.549107376119</v>
@@ -7436,25 +7436,25 @@
         <v>2270.376276991246</v>
       </c>
       <c r="S41" t="n">
-        <v>2270.376276991246</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T41" t="n">
-        <v>2050.393517622824</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="U41" t="n">
-        <v>2050.393517622824</v>
+        <v>1833.394742014089</v>
       </c>
       <c r="V41" t="n">
-        <v>1719.330630279253</v>
+        <v>1502.331854670518</v>
       </c>
       <c r="W41" t="n">
-        <v>1719.330630279253</v>
+        <v>1149.563199400404</v>
       </c>
       <c r="X41" t="n">
-        <v>1719.330630279253</v>
+        <v>1149.563199400404</v>
       </c>
       <c r="Y41" t="n">
-        <v>1719.330630279253</v>
+        <v>1149.563199400404</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.8792202047736</v>
+        <v>743.7701938734156</v>
       </c>
       <c r="C42" t="n">
-        <v>814.4261909236466</v>
+        <v>569.3171645922886</v>
       </c>
       <c r="D42" t="n">
-        <v>665.4917812623953</v>
+        <v>420.3827549310373</v>
       </c>
       <c r="E42" t="n">
-        <v>506.2543262569397</v>
+        <v>261.1452999255818</v>
       </c>
       <c r="F42" t="n">
-        <v>359.7197682838247</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="G42" t="n">
-        <v>221.6448824165167</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H42" t="n">
         <v>114.6107419524668</v>
@@ -7491,22 +7491,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K42" t="n">
-        <v>121.6684232076319</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L42" t="n">
-        <v>491.2196383161158</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M42" t="n">
-        <v>974.4476973832902</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N42" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O42" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P42" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q42" t="n">
         <v>2344.749822082216</v>
@@ -7515,25 +7515,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S42" t="n">
-        <v>2284.306083296871</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T42" t="n">
-        <v>2084.763385350902</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U42" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.94371292353</v>
+        <v>1581.834686592172</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.706356195328</v>
+        <v>1327.59732986397</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.854855989795</v>
+        <v>1119.745829658438</v>
       </c>
       <c r="Y42" t="n">
-        <v>1157.094557224842</v>
+        <v>911.9855308934837</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1783.87624508755</v>
+        <v>513.86091236428</v>
       </c>
       <c r="C43" t="n">
-        <v>1783.87624508755</v>
+        <v>344.9247294363731</v>
       </c>
       <c r="D43" t="n">
-        <v>1783.87624508755</v>
+        <v>194.8080900240374</v>
       </c>
       <c r="E43" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F43" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G43" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H43" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I43" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J43" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K43" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L43" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M43" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N43" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O43" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R43" t="n">
-        <v>2190.391887156797</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S43" t="n">
-        <v>1973.696060662917</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T43" t="n">
-        <v>1783.87624508755</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U43" t="n">
-        <v>1783.87624508755</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V43" t="n">
-        <v>1783.87624508755</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W43" t="n">
-        <v>1783.87624508755</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X43" t="n">
-        <v>1783.87624508755</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y43" t="n">
-        <v>1783.87624508755</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7622,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>667.0992681976436</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="C44" t="n">
-        <v>667.0992681976436</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="D44" t="n">
-        <v>667.0992681976436</v>
+        <v>1757.628112035911</v>
       </c>
       <c r="E44" t="n">
-        <v>667.0992681976436</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="F44" t="n">
-        <v>256.113363408036</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G44" t="n">
-        <v>256.113363408036</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H44" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I44" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J44" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K44" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L44" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M44" t="n">
         <v>1190.549107376119</v>
@@ -7673,25 +7673,25 @@
         <v>2270.376276991246</v>
       </c>
       <c r="S44" t="n">
-        <v>2270.376276991246</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T44" t="n">
-        <v>2050.393517622824</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U44" t="n">
-        <v>1796.607095507691</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="V44" t="n">
-        <v>1796.607095507691</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="W44" t="n">
-        <v>1443.838440237577</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="X44" t="n">
-        <v>1443.838440237577</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="Y44" t="n">
-        <v>1053.699108261765</v>
+        <v>1867.1984047608</v>
       </c>
     </row>
     <row r="45">
@@ -7701,43 +7701,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>821.6754629010848</v>
+        <v>676.0544483625931</v>
       </c>
       <c r="C45" t="n">
-        <v>647.2224336199578</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D45" t="n">
-        <v>498.2880239587065</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E45" t="n">
-        <v>339.050568953251</v>
+        <v>193.4295544147594</v>
       </c>
       <c r="F45" t="n">
-        <v>192.516010980136</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G45" t="n">
-        <v>192.516010980136</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H45" t="n">
-        <v>85.48187051608605</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I45" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J45" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K45" t="n">
-        <v>276.0646041288937</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L45" t="n">
-        <v>645.6158192373777</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M45" t="n">
-        <v>1128.843878304552</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N45" t="n">
-        <v>1640.568559592726</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O45" t="n">
         <v>1887.88481026779</v>
@@ -7755,22 +7755,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T45" t="n">
-        <v>2123.072528197426</v>
+        <v>1977.451513658935</v>
       </c>
       <c r="U45" t="n">
-        <v>1894.892063851584</v>
+        <v>1749.271049313092</v>
       </c>
       <c r="V45" t="n">
-        <v>1659.739955619841</v>
+        <v>1514.118941081349</v>
       </c>
       <c r="W45" t="n">
-        <v>1405.50259889164</v>
+        <v>1259.881584353148</v>
       </c>
       <c r="X45" t="n">
-        <v>1197.651098686107</v>
+        <v>1052.030084147615</v>
       </c>
       <c r="Y45" t="n">
-        <v>989.8907999211528</v>
+        <v>844.2697853826612</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1783.87624508755</v>
+        <v>198.221686764156</v>
       </c>
       <c r="C46" t="n">
-        <v>1783.87624508755</v>
+        <v>198.221686764156</v>
       </c>
       <c r="D46" t="n">
-        <v>1783.87624508755</v>
+        <v>198.221686764156</v>
       </c>
       <c r="E46" t="n">
-        <v>1783.87624508755</v>
+        <v>198.221686764156</v>
       </c>
       <c r="F46" t="n">
-        <v>1783.87624508755</v>
+        <v>198.221686764156</v>
       </c>
       <c r="G46" t="n">
-        <v>1783.87624508755</v>
+        <v>198.221686764156</v>
       </c>
       <c r="H46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K46" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L46" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M46" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N46" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O46" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P46" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q46" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R46" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S46" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T46" t="n">
-        <v>2344.749822082216</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="U46" t="n">
-        <v>2344.749822082216</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="V46" t="n">
-        <v>2344.749822082216</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="W46" t="n">
-        <v>2232.658375129097</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="X46" t="n">
-        <v>2004.66882423108</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="Y46" t="n">
-        <v>1783.87624508755</v>
+        <v>379.8701515943957</v>
       </c>
     </row>
   </sheetData>
@@ -8058,16 +8058,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N3" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,16 +8304,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,10 +8541,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>186.8580120236956</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212002</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>261.497819457984</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8778,7 +8778,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>262.7810435509599</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613913</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720741</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212002</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>108.5094987082741</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9015,7 +9015,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>262.7810435509599</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9255,13 +9255,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>390.8949017221348</v>
+        <v>330.2893092338458</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>57.08896698613911</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>47.90390621998491</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9726,7 +9726,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>323.3866360392488</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9969,7 +9969,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>254.8897585970532</v>
+        <v>315.4953510853424</v>
       </c>
       <c r="Q27" t="n">
         <v>57.08896698613911</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K36" t="n">
-        <v>47.90390621998491</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,7 +10674,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>476.3749567889587</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720732</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599042</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10902,7 +10902,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>261.4978194579836</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10914,7 +10914,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>390.8949017221345</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11078,7 +11078,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599042</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11139,7 +11139,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K42" t="n">
-        <v>108.5094987082737</v>
+        <v>261.4978194579836</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11315,7 +11315,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599042</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>47.90390621998488</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11388,7 +11388,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>237.9065809724246</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,10 +23270,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I11" t="n">
         <v>163.6851955497072</v>
@@ -23303,13 +23303,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.7829317747374</v>
+        <v>110.3608635182263</v>
       </c>
       <c r="U11" t="n">
         <v>251.2485578939812</v>
@@ -23321,10 +23321,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>344.7513455746097</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23382,22 +23382,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>143.6184697512195</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>111.384007536242</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>108.9366819640819</v>
+        <v>108.936681964082</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23458,7 +23458,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.57441713704631</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R13" t="n">
         <v>152.8143555761653</v>
@@ -23492,19 +23492,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>187.7212873736914</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,7 +23540,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.62980964006113</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S14" t="n">
         <v>181.3631617334038</v>
@@ -23549,19 +23549,19 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>155.9107930097988</v>
       </c>
     </row>
     <row r="15">
@@ -23592,7 +23592,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,19 +23619,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>76.57988169550505</v>
       </c>
       <c r="U15" t="n">
-        <v>130.2784035477364</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -23662,19 +23662,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>108.9366819640819</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,16 +23695,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.6194376234954</v>
+        <v>78.2722373409284</v>
       </c>
       <c r="U16" t="n">
         <v>286.2893338015361</v>
@@ -23735,16 +23735,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>400.6918801483846</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23777,28 +23777,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>159.6704873308941</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23808,7 +23808,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>112.0459792443682</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -23817,16 +23817,16 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>81.31564129514278</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H18" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I19" t="n">
-        <v>139.0783256288916</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J19" t="n">
         <v>54.86879163620181</v>
@@ -23932,28 +23932,28 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>40.57441713704631</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R19" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>208.7815735241403</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>110.5931200167539</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23972,7 +23972,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23984,10 +23984,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>69.14415845627991</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>107.5312675354088</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,16 +24014,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24032,7 +24032,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24148,7 +24148,7 @@
         <v>139.0783256288916</v>
       </c>
       <c r="J22" t="n">
-        <v>38.2497804383705</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>40.57441713704631</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S22" t="n">
         <v>214.5288682289405</v>
@@ -24184,16 +24184,16 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>209.1054558247364</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24206,7 +24206,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>319.4746371769001</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24215,7 +24215,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>138.5250480412576</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24224,7 +24224,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24272,7 +24272,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24291,19 +24291,19 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>81.31564129514278</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H24" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24333,10 +24333,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>30.45538403358719</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24364,13 +24364,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>59.84577111485503</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24406,7 +24406,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -24421,10 +24421,10 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>176.7845731489114</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24443,22 +24443,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>366.3878399505494</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.089049841944</v>
+        <v>333.965359779498</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I26" t="n">
         <v>163.6851955497072</v>
@@ -24497,13 +24497,13 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24519,7 +24519,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>157.3962949198572</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -24534,13 +24534,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24588,7 +24588,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>53.38246657340304</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24601,7 +24601,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>55.65811072526559</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24616,13 +24616,13 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H28" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>57.69048637708116</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,19 +24643,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S28" t="n">
         <v>214.5288682289405</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24680,10 +24680,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24695,10 +24695,10 @@
         <v>414.089049841944</v>
       </c>
       <c r="H29" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,28 +24725,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>6.65331536300188</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.3366719699212</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24768,13 +24768,13 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H30" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>67.03858805571426</v>
@@ -24804,7 +24804,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>53.38246657340287</v>
+        <v>14.27705323942823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24856,10 +24856,10 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I31" t="n">
-        <v>139.0783256288916</v>
+        <v>44.22391161134861</v>
       </c>
       <c r="J31" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24889,10 +24889,10 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T31" t="n">
-        <v>136.4759103822497</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24901,7 +24901,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24914,19 +24914,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>137.5083836521328</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>414.089049841944</v>
@@ -24935,7 +24935,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I32" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,13 +24962,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U32" t="n">
         <v>251.2485578939812</v>
@@ -24977,7 +24977,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>51.11636725045952</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25002,19 +25002,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>81.31564129514278</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25047,10 +25047,10 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>98.49313167493744</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>136.4759103822496</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25126,19 +25126,19 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T34" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>209.1054558247369</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25154,25 +25154,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H35" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I35" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,25 +25199,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S35" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V35" t="n">
-        <v>140.916518277556</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>89.61255361653878</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25278,22 +25278,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>143.6184697512195</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8986597023843</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>137.1803309947773</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25312,28 +25312,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>52.45246356162139</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.4465608509556</v>
       </c>
       <c r="H37" t="n">
-        <v>157.3867970498209</v>
+        <v>21.77872847923217</v>
       </c>
       <c r="I37" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25394,19 +25394,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>143.1636493533094</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>311.410228716226</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25439,25 +25439,25 @@
         <v>73.62980964006111</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25485,10 +25485,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,16 +25515,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S39" t="n">
-        <v>159.6212195484502</v>
+        <v>130.237302184546</v>
       </c>
       <c r="T39" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>5.910500182201503</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.86144769835001</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25558,16 +25558,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>139.0783256288915</v>
+        <v>54.06789032787965</v>
       </c>
       <c r="J40" t="n">
         <v>54.86879163620181</v>
@@ -25612,10 +25612,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25625,25 +25625,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>11.04825412599894</v>
       </c>
       <c r="E41" t="n">
-        <v>228.9123530100667</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I41" t="n">
         <v>163.6851955497072</v>
@@ -25676,19 +25676,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25719,10 +25719,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25755,16 +25755,16 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>203.4577711487112</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>120.4210546291173</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>86.86339572062737</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25831,13 +25831,13 @@
         <v>40.5744171370463</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T43" t="n">
-        <v>37.69782020388175</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U43" t="n">
         <v>286.2893338015361</v>
@@ -25862,28 +25862,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>246.2084518230427</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>119.9189399359713</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,25 +25913,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25959,10 +25959,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I45" t="n">
-        <v>28.83758272201694</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25995,7 +25995,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>197.5472709665096</v>
+        <v>53.38246657340289</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26038,7 +26038,7 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H46" t="n">
-        <v>157.3867970498209</v>
+        <v>7.573373630534348</v>
       </c>
       <c r="I46" t="n">
         <v>139.0783256288915</v>
@@ -26074,7 +26074,7 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T46" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2893338015361</v>
@@ -26083,13 +26083,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>175.5524658530032</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>651839.8119275247</v>
+        <v>651839.8119275249</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>651839.811927525</v>
+        <v>651839.8119275249</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>651839.8119275251</v>
+        <v>651839.8119275247</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>651839.8119275249</v>
+        <v>651839.8119275252</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>651839.8119275249</v>
+        <v>651839.8119275247</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>651839.8119275249</v>
+        <v>651839.811927525</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>651839.811927525</v>
+        <v>651839.8119275249</v>
       </c>
     </row>
   </sheetData>
@@ -26314,7 +26314,7 @@
         <v>492625.06191857</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.06191857</v>
       </c>
       <c r="D2" t="n">
         <v>492625.0619185698</v>
@@ -26323,37 +26323,37 @@
         <v>317251.3197170584</v>
       </c>
       <c r="F2" t="n">
+        <v>317251.3197170586</v>
+      </c>
+      <c r="G2" t="n">
+        <v>317251.3197170583</v>
+      </c>
+      <c r="H2" t="n">
+        <v>317251.3197170586</v>
+      </c>
+      <c r="I2" t="n">
         <v>317251.3197170584</v>
       </c>
-      <c r="G2" t="n">
-        <v>317251.3197170584</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>317251.3197170586</v>
+      </c>
+      <c r="K2" t="n">
+        <v>317251.3197170585</v>
+      </c>
+      <c r="L2" t="n">
+        <v>317251.3197170587</v>
+      </c>
+      <c r="M2" t="n">
+        <v>317251.3197170585</v>
+      </c>
+      <c r="N2" t="n">
+        <v>317251.3197170586</v>
+      </c>
+      <c r="O2" t="n">
+        <v>317251.3197170586</v>
+      </c>
+      <c r="P2" t="n">
         <v>317251.3197170583</v>
-      </c>
-      <c r="I2" t="n">
-        <v>317251.3197170585</v>
-      </c>
-      <c r="J2" t="n">
-        <v>317251.3197170584</v>
-      </c>
-      <c r="K2" t="n">
-        <v>317251.3197170584</v>
-      </c>
-      <c r="L2" t="n">
-        <v>317251.3197170584</v>
-      </c>
-      <c r="M2" t="n">
-        <v>317251.3197170584</v>
-      </c>
-      <c r="N2" t="n">
-        <v>317251.3197170584</v>
-      </c>
-      <c r="O2" t="n">
-        <v>317251.3197170584</v>
-      </c>
-      <c r="P2" t="n">
-        <v>317251.3197170584</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>86018.53382007605</v>
+        <v>86018.53382007603</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>321450.8742449153</v>
+        <v>320962.9529903556</v>
       </c>
       <c r="C4" t="n">
-        <v>321450.8742449154</v>
+        <v>320962.9529903556</v>
       </c>
       <c r="D4" t="n">
-        <v>321450.8742449153</v>
+        <v>320962.9529903556</v>
       </c>
       <c r="E4" t="n">
-        <v>44730.4424754582</v>
+        <v>44219.93285555081</v>
       </c>
       <c r="F4" t="n">
-        <v>44730.4424754582</v>
+        <v>44219.93285555081</v>
       </c>
       <c r="G4" t="n">
-        <v>44730.4424754582</v>
+        <v>44219.93285555081</v>
       </c>
       <c r="H4" t="n">
-        <v>44730.4424754582</v>
+        <v>44219.9328555508</v>
       </c>
       <c r="I4" t="n">
-        <v>44730.4424754582</v>
+        <v>44219.9328555508</v>
       </c>
       <c r="J4" t="n">
-        <v>44730.4424754582</v>
+        <v>44219.93285555081</v>
       </c>
       <c r="K4" t="n">
-        <v>44730.4424754582</v>
+        <v>44219.9328555508</v>
       </c>
       <c r="L4" t="n">
-        <v>44730.4424754582</v>
+        <v>44219.93285555081</v>
       </c>
       <c r="M4" t="n">
-        <v>44730.4424754582</v>
+        <v>44219.9328555508</v>
       </c>
       <c r="N4" t="n">
-        <v>44730.44247545819</v>
+        <v>44219.9328555508</v>
       </c>
       <c r="O4" t="n">
-        <v>44730.4424754582</v>
+        <v>44219.93285555079</v>
       </c>
       <c r="P4" t="n">
-        <v>44730.44247545819</v>
+        <v>44219.9328555508</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42123.48737834529</v>
+        <v>42611.40863290506</v>
       </c>
       <c r="C6" t="n">
-        <v>122892.9189098927</v>
+        <v>123380.8401644527</v>
       </c>
       <c r="D6" t="n">
-        <v>122892.9189098928</v>
+        <v>123380.8401644526</v>
       </c>
       <c r="E6" t="n">
-        <v>-115313.1876627991</v>
+        <v>-114802.6780428916</v>
       </c>
       <c r="F6" t="n">
-        <v>230299.1551161536</v>
+        <v>230809.6647360612</v>
       </c>
       <c r="G6" t="n">
-        <v>230299.1551161536</v>
+        <v>230809.664736061</v>
       </c>
       <c r="H6" t="n">
-        <v>230299.1551161535</v>
+        <v>230809.6647360612</v>
       </c>
       <c r="I6" t="n">
-        <v>230299.1551161538</v>
+        <v>230809.6647360611</v>
       </c>
       <c r="J6" t="n">
-        <v>167239.2125170474</v>
+        <v>167749.722136955</v>
       </c>
       <c r="K6" t="n">
-        <v>230299.1551161537</v>
+        <v>230809.6647360612</v>
       </c>
       <c r="L6" t="n">
-        <v>230299.1551161537</v>
+        <v>230809.6647360614</v>
       </c>
       <c r="M6" t="n">
-        <v>144280.6212960777</v>
+        <v>144791.1309159852</v>
       </c>
       <c r="N6" t="n">
-        <v>230299.1551161537</v>
+        <v>230809.6647360612</v>
       </c>
       <c r="O6" t="n">
-        <v>230299.1551161537</v>
+        <v>230809.6647360612</v>
       </c>
       <c r="P6" t="n">
-        <v>230299.1551161537</v>
+        <v>230809.664736061</v>
       </c>
     </row>
   </sheetData>
@@ -26750,7 +26750,7 @@
         <v>301.9048087062786</v>
       </c>
       <c r="G3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="H3" t="n">
         <v>301.9048087062786</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>345.1731666428951</v>
+        <v>345.173166642895</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.1731666428951</v>
+        <v>345.173166642895</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,22 +27385,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>169.6449844288198</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>341.1734056019136</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27439,7 +27439,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27476,10 +27476,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>19.29527158339847</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27515,7 +27515,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>61.79480040250769</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27561,7 +27561,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -27591,13 +27591,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>261.7675658288002</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>397.1388095696925</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -27658,7 +27658,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -27670,13 +27670,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>119.7272167700117</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27698,10 +27698,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27713,7 +27713,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>14.03828129413911</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -27749,16 +27749,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>87.65281320776563</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,10 +27862,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>369.7532147690989</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>207.0389011273226</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27874,7 +27874,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27929,28 +27929,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>60.0874894808784</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,25 +27977,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>171.9110789898477</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28026,7 +28026,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>31.76164565717804</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
@@ -28059,7 +28059,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>93.55107118671071</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -31756,25 +31756,25 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I11" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069872</v>
       </c>
       <c r="J11" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K11" t="n">
-        <v>154.3856233586786</v>
+        <v>154.3856233586785</v>
       </c>
       <c r="L11" t="n">
-        <v>191.5290174870998</v>
+        <v>191.5290174870997</v>
       </c>
       <c r="M11" t="n">
-        <v>213.1129356452115</v>
+        <v>213.1129356452114</v>
       </c>
       <c r="N11" t="n">
-        <v>216.5613257466656</v>
+        <v>216.5613257466655</v>
       </c>
       <c r="O11" t="n">
-        <v>204.4927189463719</v>
+        <v>204.4927189463718</v>
       </c>
       <c r="P11" t="n">
         <v>174.5298045144673</v>
@@ -31783,16 +31783,16 @@
         <v>131.0646147183121</v>
       </c>
       <c r="R11" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108854</v>
       </c>
       <c r="S11" t="n">
         <v>27.65690785284151</v>
       </c>
       <c r="T11" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393906</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528548</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,22 +31829,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.649380154575769</v>
       </c>
       <c r="H12" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087033</v>
       </c>
       <c r="I12" t="n">
-        <v>22.35804479570083</v>
+        <v>22.35804479570082</v>
       </c>
       <c r="J12" t="n">
-        <v>61.35218381454669</v>
+        <v>61.35218381454668</v>
       </c>
       <c r="K12" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L12" t="n">
-        <v>140.9980901415503</v>
+        <v>140.9980901415502</v>
       </c>
       <c r="M12" t="n">
         <v>164.5381207449218</v>
@@ -31859,7 +31859,7 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q12" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988239</v>
       </c>
       <c r="R12" t="n">
         <v>40.31853275515171</v>
@@ -31868,10 +31868,10 @@
         <v>12.06195155538763</v>
       </c>
       <c r="T12" t="n">
-        <v>2.617457728311981</v>
+        <v>2.61745772831198</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04272237859051115</v>
+        <v>0.04272237859051114</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031253</v>
       </c>
       <c r="H13" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618698</v>
       </c>
       <c r="I13" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J13" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047095</v>
       </c>
       <c r="K13" t="n">
-        <v>63.25153205354491</v>
+        <v>63.2515320535449</v>
       </c>
       <c r="L13" t="n">
-        <v>80.94018428823739</v>
+        <v>80.94018428823738</v>
       </c>
       <c r="M13" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069443</v>
       </c>
       <c r="N13" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545558</v>
       </c>
       <c r="O13" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598722</v>
       </c>
       <c r="P13" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292341</v>
       </c>
       <c r="Q13" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464806</v>
       </c>
       <c r="R13" t="n">
-        <v>24.47903580100416</v>
+        <v>24.47903580100415</v>
       </c>
       <c r="S13" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031734</v>
       </c>
       <c r="T13" t="n">
         <v>2.32615180478608</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471595</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31993,25 +31993,25 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I14" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069872</v>
       </c>
       <c r="J14" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K14" t="n">
-        <v>154.3856233586786</v>
+        <v>154.3856233586785</v>
       </c>
       <c r="L14" t="n">
-        <v>191.5290174870998</v>
+        <v>191.5290174870997</v>
       </c>
       <c r="M14" t="n">
-        <v>213.1129356452115</v>
+        <v>213.1129356452114</v>
       </c>
       <c r="N14" t="n">
-        <v>216.5613257466656</v>
+        <v>216.5613257466655</v>
       </c>
       <c r="O14" t="n">
-        <v>204.4927189463719</v>
+        <v>204.4927189463718</v>
       </c>
       <c r="P14" t="n">
         <v>174.5298045144673</v>
@@ -32020,16 +32020,16 @@
         <v>131.0646147183121</v>
       </c>
       <c r="R14" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108854</v>
       </c>
       <c r="S14" t="n">
         <v>27.65690785284151</v>
       </c>
       <c r="T14" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393906</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528548</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,22 +32066,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.649380154575769</v>
       </c>
       <c r="H15" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087033</v>
       </c>
       <c r="I15" t="n">
-        <v>22.35804479570083</v>
+        <v>22.35804479570082</v>
       </c>
       <c r="J15" t="n">
-        <v>61.35218381454669</v>
+        <v>61.35218381454668</v>
       </c>
       <c r="K15" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L15" t="n">
-        <v>140.9980901415503</v>
+        <v>140.9980901415502</v>
       </c>
       <c r="M15" t="n">
         <v>164.5381207449218</v>
@@ -32096,7 +32096,7 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q15" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988239</v>
       </c>
       <c r="R15" t="n">
         <v>40.31853275515171</v>
@@ -32105,10 +32105,10 @@
         <v>12.06195155538763</v>
       </c>
       <c r="T15" t="n">
-        <v>2.617457728311981</v>
+        <v>2.61745772831198</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04272237859051115</v>
+        <v>0.04272237859051114</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031253</v>
       </c>
       <c r="H16" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618698</v>
       </c>
       <c r="I16" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J16" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047095</v>
       </c>
       <c r="K16" t="n">
-        <v>63.25153205354491</v>
+        <v>63.2515320535449</v>
       </c>
       <c r="L16" t="n">
-        <v>80.94018428823739</v>
+        <v>80.94018428823738</v>
       </c>
       <c r="M16" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069443</v>
       </c>
       <c r="N16" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545558</v>
       </c>
       <c r="O16" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598722</v>
       </c>
       <c r="P16" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292341</v>
       </c>
       <c r="Q16" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464806</v>
       </c>
       <c r="R16" t="n">
-        <v>24.47903580100416</v>
+        <v>24.47903580100415</v>
       </c>
       <c r="S16" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031734</v>
       </c>
       <c r="T16" t="n">
         <v>2.32615180478608</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471595</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32230,7 +32230,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I17" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J17" t="n">
         <v>103.0102241525006</v>
@@ -32251,22 +32251,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P17" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q17" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R17" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S17" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T17" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,16 +32303,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H18" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I18" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J18" t="n">
-        <v>61.35218381454669</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K18" t="n">
         <v>104.8606541711232</v>
@@ -32321,25 +32321,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M18" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N18" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O18" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P18" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q18" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R18" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S18" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T18" t="n">
         <v>2.617457728311981</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H19" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I19" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J19" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K19" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L19" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M19" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N19" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O19" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P19" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q19" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R19" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S19" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T19" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34708,7 +34708,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -34778,16 +34778,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N3" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
@@ -35024,16 +35024,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
@@ -35261,10 +35261,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>55.51629994036225</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788805</v>
       </c>
       <c r="K11" t="n">
         <v>258.4411848848628</v>
@@ -35416,13 +35416,13 @@
         <v>373.4238170675629</v>
       </c>
       <c r="M11" t="n">
-        <v>432.2802359107712</v>
+        <v>432.2802359107711</v>
       </c>
       <c r="N11" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O11" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874304</v>
       </c>
       <c r="P11" t="n">
         <v>265.0955169306804</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>231.4844522093428</v>
+        <v>228.5170346547482</v>
       </c>
       <c r="L12" t="n">
-        <v>373.2840556651353</v>
+        <v>373.2840556651352</v>
       </c>
       <c r="M12" t="n">
         <v>488.1091505729034</v>
       </c>
       <c r="N12" t="n">
-        <v>300.3322866702078</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O12" t="n">
         <v>405.7701329255822</v>
@@ -35507,7 +35507,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q12" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,7 +35568,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766205</v>
       </c>
       <c r="L13" t="n">
         <v>108.5302095485535</v>
@@ -35583,7 +35583,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P13" t="n">
-        <v>63.12350311781691</v>
+        <v>63.1235031178169</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788835</v>
       </c>
       <c r="K14" t="n">
         <v>258.4411848848628</v>
@@ -35653,13 +35653,13 @@
         <v>373.4238170675629</v>
       </c>
       <c r="M14" t="n">
-        <v>432.2802359107712</v>
+        <v>432.2802359107711</v>
       </c>
       <c r="N14" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O14" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874304</v>
       </c>
       <c r="P14" t="n">
         <v>265.0955169306804</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>231.4844522093428</v>
+        <v>75.52871390503832</v>
       </c>
       <c r="L15" t="n">
-        <v>373.2840556651353</v>
+        <v>373.2840556651352</v>
       </c>
       <c r="M15" t="n">
         <v>488.1091505729034</v>
       </c>
       <c r="N15" t="n">
-        <v>300.3322866702078</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O15" t="n">
         <v>405.7701329255822</v>
@@ -35805,7 +35805,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766205</v>
       </c>
       <c r="L16" t="n">
         <v>108.5302095485535</v>
@@ -35820,7 +35820,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P16" t="n">
-        <v>63.12350311781691</v>
+        <v>63.1235031178169</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35881,13 +35881,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K17" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L17" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M17" t="n">
         <v>432.2802359107712</v>
@@ -35896,13 +35896,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O17" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P17" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q17" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K18" t="n">
-        <v>231.4844522093428</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L18" t="n">
         <v>373.2840556651353</v>
@@ -35975,7 +35975,7 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O18" t="n">
-        <v>402.8027153709875</v>
+        <v>342.1971228826985</v>
       </c>
       <c r="P18" t="n">
         <v>308.4914891638518</v>
@@ -36042,13 +36042,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L19" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M19" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N19" t="n">
         <v>127.4430518046842</v>
@@ -36057,7 +36057,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P19" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K24" t="n">
-        <v>231.4844522093428</v>
+        <v>14.92312141674913</v>
       </c>
       <c r="L24" t="n">
         <v>373.2840556651353</v>
@@ -36446,7 +36446,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N24" t="n">
-        <v>360.9378791584968</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O24" t="n">
         <v>405.7701329255822</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>231.4844522093428</v>
@@ -36689,7 +36689,7 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P27" t="n">
-        <v>244.9184791209679</v>
+        <v>305.5240716092571</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>14.92312141674913</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L36" t="n">
         <v>373.2840556651353</v>
@@ -37394,7 +37394,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N36" t="n">
-        <v>516.8936174628016</v>
+        <v>513.9261999082067</v>
       </c>
       <c r="O36" t="n">
         <v>405.7701329255822</v>
@@ -37403,7 +37403,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q36" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788754</v>
       </c>
       <c r="K38" t="n">
         <v>258.4411848848628</v>
@@ -37561,7 +37561,7 @@
         <v>265.0955169306804</v>
       </c>
       <c r="Q38" t="n">
-        <v>121.0739155037669</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>231.4844522093429</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L39" t="n">
         <v>373.2840556651353</v>
@@ -37634,7 +37634,7 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O39" t="n">
-        <v>402.8027153709872</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P39" t="n">
         <v>308.4914891638518</v>
@@ -37798,7 +37798,7 @@
         <v>265.0955169306804</v>
       </c>
       <c r="Q41" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037669</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>75.52871390503797</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L42" t="n">
         <v>373.2840556651353</v>
@@ -37877,7 +37877,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q42" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38035,7 +38035,7 @@
         <v>265.0955169306804</v>
       </c>
       <c r="Q44" t="n">
-        <v>121.0739155037669</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K45" t="n">
-        <v>231.4844522093429</v>
+        <v>14.92312141674913</v>
       </c>
       <c r="L45" t="n">
         <v>373.2840556651353</v>
@@ -38108,7 +38108,7 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O45" t="n">
-        <v>249.8143946212773</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P45" t="n">
         <v>308.4914891638518</v>
